--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -36,9 +36,6 @@
     <t>warehouse</t>
   </si>
   <si>
-    <t>dragonEyire</t>
-  </si>
-  <si>
     <t>hospital</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   <si>
     <t>false</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragonEyrie</t>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="A1:D17"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -846,16 +846,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -880,10 +880,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -894,10 +894,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -905,13 +905,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -919,13 +919,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -933,13 +933,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -947,13 +947,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -961,13 +961,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -975,13 +975,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -989,13 +989,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -1003,13 +1003,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -1017,13 +1017,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -1031,13 +1031,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -1045,13 +1045,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -1059,13 +1059,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1073,13 +1073,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -128,10 +128,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>STR_name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>BOOL_hasHouse</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -149,6 +145,10 @@
   </si>
   <si>
     <t>dragonEyrie</t>
+  </si>
+  <si>
+    <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -834,7 +834,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -849,10 +849,10 @@
         <v>15</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>32</v>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>16</v>
@@ -880,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>17</v>
@@ -894,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>18</v>
@@ -905,10 +905,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -922,7 +922,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
@@ -936,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -950,7 +950,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
@@ -978,7 +978,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -992,7 +992,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>25</v>
@@ -1006,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>26</v>
@@ -1020,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>27</v>
@@ -1034,7 +1034,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>28</v>
@@ -1048,7 +1048,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>20</v>
@@ -1062,7 +1062,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>30</v>
@@ -1076,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>31</v>

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="2800" windowWidth="12040" windowHeight="11080" tabRatio="883"/>
+    <workbookView xWindow="6660" yWindow="2460" windowWidth="23120" windowHeight="13760" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>keep</t>
   </si>
@@ -148,6 +148,62 @@
   </si>
   <si>
     <t>STR_type</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeGuild</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>prison</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>hunterHall</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingGround</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源仓库</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>军用帐篷</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易行会</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>监狱</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎手大厅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营地</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马厩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +353,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -312,6 +368,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -354,7 +424,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="44">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -372,6 +442,13 @@
     <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -382,6 +459,13 @@
     <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -831,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1082,6 +1166,132 @@
         <v>31</v>
       </c>
     </row>
+    <row r="18" spans="1:4" ht="20" customHeight="1">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="20" customHeight="1">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="20" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="20" customHeight="1">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="20" customHeight="1">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="20" customHeight="1">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20" customHeight="1">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-18320" yWindow="20" windowWidth="13640" windowHeight="15100" tabRatio="883"/>
+    <workbookView xWindow="6620" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>keep</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>materialDepot</t>
-  </si>
-  <si>
-    <t>armyCamp</t>
   </si>
   <si>
     <t>barracks</t>
@@ -94,9 +91,6 @@
     <t>材料库房</t>
   </si>
   <si>
-    <t>军用帐篷</t>
-  </si>
-  <si>
     <t>兵营</t>
   </si>
   <si>
@@ -152,10 +146,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>prison</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>hunterHall</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -172,35 +162,23 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>资源仓库</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>军用帐篷</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>贸易行会</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>监狱</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>猎手大厅</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>训练营地</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>马厩</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>车间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -354,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -369,6 +347,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -431,7 +427,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="68">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -459,6 +455,15 @@
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -479,6 +484,15 @@
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -931,7 +945,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -943,16 +957,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
@@ -963,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="20" customHeight="1">
@@ -977,10 +991,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20" customHeight="1">
@@ -991,10 +1005,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="20" customHeight="1">
@@ -1002,13 +1016,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="20" customHeight="1">
@@ -1016,13 +1030,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -1033,10 +1047,10 @@
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -1044,13 +1058,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -1058,13 +1072,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -1072,13 +1086,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="20" customHeight="1">
@@ -1086,13 +1100,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="20" customHeight="1">
@@ -1100,13 +1114,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="20" customHeight="1">
@@ -1114,13 +1128,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="20" customHeight="1">
@@ -1128,13 +1142,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="20" customHeight="1">
@@ -1145,10 +1159,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -1156,13 +1170,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">
@@ -1170,13 +1184,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1184,27 +1198,27 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>2</v>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -1212,13 +1226,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -1226,84 +1240,29 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="20" customHeight="1">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="20" customHeight="1">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="20" customHeight="1">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="C26" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="6960" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -138,10 +138,6 @@
     <t>dragonEyrie</t>
   </si>
   <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>tradeGuild</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -182,7 +178,11 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>学院</t>
+    <t>训练场</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -347,6 +347,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -427,7 +435,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="76">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -464,6 +472,10 @@
     <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -493,6 +505,10 @@
     <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -944,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -960,7 +976,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>30</v>
@@ -1064,7 +1080,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -1184,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1198,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -1212,13 +1228,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -1226,13 +1242,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -1240,13 +1256,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6620" yWindow="1960" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -138,10 +138,6 @@
     <t>dragonEyrie</t>
   </si>
   <si>
-    <t>STR_type</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>tradeGuild</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -183,6 +179,10 @@
   </si>
   <si>
     <t>学院</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_name</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -960,7 +960,7 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>30</v>
@@ -1064,7 +1064,7 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="20" customHeight="1">
@@ -1184,13 +1184,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="20" customHeight="1">
@@ -1198,13 +1198,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="20" customHeight="1">
@@ -1212,13 +1212,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="20" customHeight="1">
@@ -1226,13 +1226,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="20" customHeight="1">
@@ -1240,13 +1240,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="20" customHeight="1">

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="1660" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="14520" yWindow="1740" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -332,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="76">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -347,6 +347,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -435,7 +449,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="76">
+  <cellStyles count="90">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -476,6 +490,13 @@
     <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -509,6 +530,13 @@
     <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -961,7 +989,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1046,13 +1074,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="20" customHeight="1">
@@ -1060,13 +1088,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="20" customHeight="1">
@@ -1088,13 +1116,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="20" customHeight="1">
@@ -1172,13 +1200,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="20" customHeight="1">
@@ -1186,13 +1214,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="20" customHeight="1">

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="1740" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="14600" yWindow="3000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
   <si>
     <t>keep</t>
   </si>
@@ -183,6 +183,86 @@
   </si>
   <si>
     <t>STR_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_preCondition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_wall_0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_keep_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_dragonEyrie_0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_miner_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_farmer_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_keep_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_warehouse_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_quarrier_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_woodcutter_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_dwelling_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_materialDepot_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_academy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_wall_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_watchTower_0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +412,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="90">
+  <cellStyleXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -347,6 +427,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -449,7 +557,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="90">
+  <cellStyles count="118">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -497,6 +605,20 @@
     <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -537,6 +659,20 @@
     <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -986,10 +1122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -999,7 +1135,7 @@
     <col min="4" max="16384" width="20.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="20" customHeight="1">
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="20" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1010,10 +1146,13 @@
         <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
+    <row r="2" spans="1:5" ht="20" customHeight="1">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1024,10 +1163,13 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20" customHeight="1">
+    <row r="3" spans="1:5" ht="20" customHeight="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1037,11 +1179,14 @@
       <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20" customHeight="1">
+    <row r="4" spans="1:5" ht="20" customHeight="1">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1051,11 +1196,14 @@
       <c r="C4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20" customHeight="1">
+    <row r="5" spans="1:5" ht="20" customHeight="1">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1066,10 +1214,13 @@
         <v>33</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20" customHeight="1">
+    <row r="6" spans="1:5" ht="20" customHeight="1">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1080,10 +1231,13 @@
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20" customHeight="1">
+    <row r="7" spans="1:5" ht="20" customHeight="1">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1094,10 +1248,13 @@
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20" customHeight="1">
+    <row r="8" spans="1:5" ht="20" customHeight="1">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1108,10 +1265,13 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20" customHeight="1">
+    <row r="9" spans="1:5" ht="20" customHeight="1">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1122,10 +1282,13 @@
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20" customHeight="1">
+    <row r="10" spans="1:5" ht="20" customHeight="1">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1136,10 +1299,13 @@
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20" customHeight="1">
+    <row r="11" spans="1:5" ht="20" customHeight="1">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1150,10 +1316,13 @@
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20" customHeight="1">
+    <row r="12" spans="1:5" ht="20" customHeight="1">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1164,10 +1333,13 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20" customHeight="1">
+    <row r="13" spans="1:5" ht="20" customHeight="1">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1178,10 +1350,13 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20" customHeight="1">
+    <row r="14" spans="1:5" ht="20" customHeight="1">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1192,10 +1367,13 @@
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20" customHeight="1">
+    <row r="15" spans="1:5" ht="20" customHeight="1">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1206,10 +1384,13 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20" customHeight="1">
+    <row r="16" spans="1:5" ht="20" customHeight="1">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1220,10 +1401,13 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20" customHeight="1">
+    <row r="17" spans="1:5" ht="20" customHeight="1">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1234,10 +1418,13 @@
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20" customHeight="1">
+    <row r="18" spans="1:5" ht="20" customHeight="1">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1248,10 +1435,13 @@
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20" customHeight="1">
+    <row r="19" spans="1:5" ht="20" customHeight="1">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1262,10 +1452,13 @@
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="20" customHeight="1">
+    <row r="20" spans="1:5" ht="20" customHeight="1">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1276,10 +1469,13 @@
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20" customHeight="1">
+    <row r="21" spans="1:5" ht="20" customHeight="1">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1290,22 +1486,53 @@
         <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20" customHeight="1">
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:4" ht="20" customHeight="1">
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:4" ht="20" customHeight="1">
+    <row r="22" spans="1:5" ht="20" customHeight="1">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20" customHeight="1">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20" customHeight="1">
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:4" ht="20" customHeight="1">
+    <row r="25" spans="1:5" ht="20" customHeight="1">
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:4" ht="20" customHeight="1">
+    <row r="26" spans="1:5" ht="20" customHeight="1">
       <c r="C26" s="6"/>
     </row>
   </sheetData>

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14600" yWindow="3000" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>keep</t>
   </si>
@@ -131,138 +131,166 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>dragonEyrie</t>
   </si>
   <si>
+    <t>hunterHall</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>workshop</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>贸易行会</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎手大厅</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>马厩</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练场</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_preCondition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_wall_0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_dragonEyrie_0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_miner_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_farmer_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_woodcutter_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_dwelling_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_materialDepot_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_academy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_wall_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_watchTower_0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_keep_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_miner_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_keep_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_warehouse_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_miner_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_quarrier_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_farmer_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>tradeGuild</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>hunterHall</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>trainingGround</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>building_academy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>stable</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>workshop</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>贸易行会</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎手大厅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>马厩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>学院</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练场</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_preCondition</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>wall</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>house_quarrier_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>tower</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>城墙</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭塔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_wall_0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_keep_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_dragonEyrie_0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_miner_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_farmer_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_keep_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_warehouse_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_quarrier_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_woodcutter_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_dwelling_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_materialDepot_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_academy_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_wall_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_watchTower_0</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1125,7 +1153,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A2" sqref="A2:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1140,13 +1168,13 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
@@ -1163,7 +1191,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -1180,7 +1208,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -1194,10 +1222,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1208,13 +1236,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -1228,7 +1256,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
@@ -1248,7 +1276,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -1262,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -1279,10 +1307,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -1299,7 +1327,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -1313,10 +1341,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -1330,10 +1358,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
@@ -1350,7 +1378,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -1364,10 +1392,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
@@ -1384,7 +1412,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>28</v>
@@ -1398,10 +1426,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
@@ -1412,16 +1440,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">
@@ -1429,16 +1457,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -1446,16 +1474,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -1463,16 +1491,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -1480,16 +1508,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -1497,16 +1525,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -1514,16 +1542,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
@@ -1153,7 +1153,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1406,16 +1406,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -1423,16 +1423,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="20" customHeight="1">
@@ -1440,16 +1440,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="20" customHeight="1">

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="15200" yWindow="740" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -138,159 +138,159 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>贸易行会</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>车间</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练场</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_name</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR_preCondition</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭塔</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_wall_0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_dragonEyrie_0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_miner_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_farmer_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_woodcutter_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_dwelling_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_materialDepot_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_academy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_wall_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_watchTower_0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_keep_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_miner_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_keep_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>学院</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_warehouse_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_miner_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_quarrier_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_farmer_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tradeGuild</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>trainingGround</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>building_academy_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>stable</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>wall</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>house_quarrier_1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>城墙</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>tower</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>workshop</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>贸易行会</t>
+    <t>马厩</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>猎手大厅</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>马厩</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>车间</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练场</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR_preCondition</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>箭塔</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_wall_0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_dragonEyrie_0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_miner_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_farmer_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_woodcutter_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_dwelling_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_materialDepot_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_academy_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_wall_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_watchTower_0</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_keep_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_miner_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_keep_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>学院</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_warehouse_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_miner_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_quarrier_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_farmer_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tradeGuild</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>trainingGround</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>building_academy_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>stable</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>wall</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>house_quarrier_1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>城墙</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>tower</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +440,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="118">
+  <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -455,6 +455,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -585,7 +591,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="118">
+  <cellStyles count="124">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -647,6 +653,9 @@
     <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -701,6 +710,9 @@
     <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1153,7 +1165,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
@@ -1168,13 +1180,13 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>29</v>
@@ -1191,7 +1203,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>15</v>
@@ -1208,7 +1220,7 @@
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -1222,10 +1234,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>17</v>
@@ -1242,7 +1254,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>18</v>
@@ -1256,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -1276,7 +1288,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>19</v>
@@ -1290,13 +1302,13 @@
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20" customHeight="1">
@@ -1307,10 +1319,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
@@ -1327,7 +1339,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>22</v>
@@ -1341,10 +1353,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>23</v>
@@ -1358,10 +1370,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>24</v>
@@ -1378,7 +1390,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>25</v>
@@ -1392,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
@@ -1406,16 +1418,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="20" customHeight="1">
@@ -1429,7 +1441,7 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>28</v>
@@ -1446,7 +1458,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>27</v>
@@ -1457,16 +1469,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="20" customHeight="1">
@@ -1474,16 +1486,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="20" customHeight="1">
@@ -1491,16 +1503,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="20" customHeight="1">
@@ -1508,16 +1520,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="20" customHeight="1">
@@ -1525,16 +1537,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="20" customHeight="1">
@@ -1542,16 +1554,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="20" customHeight="1">

--- a/gameData/shared/Buildings.xlsx
+++ b/gameData/shared/Buildings.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="740" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
+    <workbookView xWindow="4540" yWindow="1540" windowWidth="25600" windowHeight="16060" tabRatio="883"/>
   </bookViews>
   <sheets>
     <sheet name="buildings" sheetId="2" r:id="rId1"/>
@@ -440,7 +440,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0">
@@ -455,6 +455,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -591,7 +595,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="128">
     <cellStyle name="Default 1" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
     <cellStyle name="Normal_" xfId="3"/>
@@ -656,6 +660,8 @@
     <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -713,6 +719,8 @@
     <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
     <cellStyle name="解释性文本" xfId="8"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="표준_chapter_01" xfId="9"/>
@@ -1165,7 +1173,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
